--- a/Practical Files/exels/Practical-2.xlsx
+++ b/Practical Files/exels/Practical-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vatsal\Desktop\Sem4\DAA\Practical Files\exels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99982FFE-28D3-49D2-8B8D-0C9E3195F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63CB04-F874-4997-A5B3-32DD57E71ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15336" yWindow="684" windowWidth="15336" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20424" yWindow="684" windowWidth="10236" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -227,9 +227,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,10 +278,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -299,9 +296,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,17 +1436,6 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>1973</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
